--- a/Income/XEL_inc.xlsx
+++ b/Income/XEL_inc.xlsx
@@ -1983,16 +1983,16 @@
         <v>0.2378</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.2403</v>
+        <v>0.3369</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.3356</v>
+        <v>0.4336</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.4315</v>
+        <v>0.5297</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.517</v>
+        <v>0.6125</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.6024</v>
@@ -2110,16 +2110,16 @@
         <v>0.1836</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.188</v>
+        <v>0.1881</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.1859</v>
+        <v>0.186</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.185</v>
+        <v>0.1851</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.1824</v>
+        <v>0.1825</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.1716</v>
@@ -2240,13 +2240,13 @@
         <v>0.1325</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.1302</v>
+        <v>0.1303</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.1293</v>
+        <v>0.1294</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.13</v>
+        <v>0.1301</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.1214</v>
@@ -2364,16 +2364,16 @@
         <v>0.1278</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.1297</v>
+        <v>0.1298</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.1249</v>
+        <v>0.125</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0.1207</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.1189</v>
+        <v>0.119</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.1114</v>
@@ -2485,19 +2485,19 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.0</v>
+        <v>-0.2238</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>-0.2187</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-0.1764</v>
+        <v>-0.1765</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-0.1808</v>
+        <v>-0.1809</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>-0.165</v>
+        <v>-0.1651</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>-0.0834</v>
@@ -4098,16 +4098,16 @@
         <v>0.3653</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.3664</v>
+        <v>0.3676</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.3614</v>
+        <v>0.3626</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.3571</v>
+        <v>0.3583</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.3465</v>
+        <v>0.3476</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.335</v>
@@ -4219,22 +4219,22 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.0</v>
+        <v>0.1667</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.2471</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.253</v>
+        <v>0.2531</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.2743</v>
+        <v>0.2745</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.2801</v>
+        <v>0.2803</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.2829</v>
+        <v>0.283</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.2744</v>
